--- a/data/fields.xlsx
+++ b/data/fields.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Nick\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Nick\GitHub\steel-bridge-data-analysis\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="12930" windowHeight="6270" activeTab="2" xr2:uid="{5A72B0BB-8970-420D-B985-3E4E3A284D4E}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="12930" windowHeight="6270" xr2:uid="{5A72B0BB-8970-420D-B985-3E4E3A284D4E}"/>
   </bookViews>
   <sheets>
     <sheet name="fields_all" sheetId="1" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="494" uniqueCount="334">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="492" uniqueCount="333">
   <si>
     <t>Location meta data for maximum demands</t>
   </si>
@@ -700,9 +700,6 @@
   </si>
   <si>
     <t>Exterior Shear Distribution Factor</t>
-  </si>
-  <si>
-    <t>Diaphragm Stiffness Multiplier</t>
   </si>
   <si>
     <t>Diaphragm Modulus of Elasticity</t>
@@ -1057,7 +1054,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="7" x14ac:knownFonts="1">
+  <fonts count="9" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1105,6 +1102,21 @@
     </font>
     <font>
       <b/>
+      <sz val="16"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -1132,7 +1144,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
@@ -1144,12 +1156,6 @@
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="15"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1158,6 +1164,22 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1472,10 +1494,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{20388142-FE86-451D-89D2-3D07DC082DD1}">
-  <dimension ref="A1:B163"/>
+  <dimension ref="A1:B162"/>
   <sheetViews>
-    <sheetView topLeftCell="A124" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="A156" sqref="A156"/>
+    <sheetView tabSelected="1" topLeftCell="A4" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="A45" sqref="A45:XFD45"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1488,11 +1510,11 @@
     <col min="6" max="16384" width="9.140625" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" s="12" customFormat="1" ht="21" x14ac:dyDescent="0.35">
-      <c r="A1" s="11" t="s">
+    <row r="1" spans="1:2" s="10" customFormat="1" ht="21" x14ac:dyDescent="0.35">
+      <c r="A1" s="9" t="s">
         <v>171</v>
       </c>
-      <c r="B1" s="11" t="s">
+      <c r="B1" s="9" t="s">
         <v>172</v>
       </c>
     </row>
@@ -1836,13 +1858,13 @@
       <c r="A44" s="2" t="s">
         <v>157</v>
       </c>
-      <c r="B44" s="10" t="s">
+      <c r="B44" s="8" t="s">
         <v>216</v>
       </c>
     </row>
     <row r="45" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A45" s="2" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="B45" s="2" t="s">
         <v>217</v>
@@ -1850,7 +1872,7 @@
     </row>
     <row r="46" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A46" s="2" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="B46" s="2" t="s">
         <v>218</v>
@@ -1858,31 +1880,31 @@
     </row>
     <row r="47" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A47" s="2" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="B47" s="2" t="s">
         <v>219</v>
       </c>
     </row>
-    <row r="48" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A48" s="2" t="s">
-        <v>161</v>
-      </c>
-      <c r="B48" s="2" t="s">
-        <v>220</v>
-      </c>
-    </row>
-    <row r="49" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A48" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="B48" s="5" t="s">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="49" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A49" s="5" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B49" s="5" t="s">
-        <v>279</v>
+        <v>280</v>
       </c>
     </row>
     <row r="50" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A50" s="5" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B50" s="5" t="s">
         <v>281</v>
@@ -1890,7 +1912,7 @@
     </row>
     <row r="51" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A51" s="5" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B51" s="5" t="s">
         <v>282</v>
@@ -1898,47 +1920,47 @@
     </row>
     <row r="52" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A52" s="5" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B52" s="5" t="s">
-        <v>283</v>
+        <v>276</v>
       </c>
     </row>
     <row r="53" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A53" s="5" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B53" s="5" t="s">
-        <v>277</v>
-      </c>
-    </row>
-    <row r="54" spans="1:2" x14ac:dyDescent="0.25">
+        <v>283</v>
+      </c>
+    </row>
+    <row r="54" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A54" s="5" t="s">
-        <v>15</v>
+        <v>28</v>
       </c>
       <c r="B54" s="5" t="s">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="55" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A55" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="B55" s="5" t="s">
         <v>284</v>
-      </c>
-    </row>
-    <row r="55" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A55" s="5" t="s">
-        <v>28</v>
-      </c>
-      <c r="B55" s="5" t="s">
-        <v>291</v>
       </c>
     </row>
     <row r="56" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A56" s="5" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="B56" s="5" t="s">
-        <v>285</v>
+        <v>286</v>
       </c>
     </row>
     <row r="57" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A57" s="5" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="B57" s="5" t="s">
         <v>287</v>
@@ -1946,7 +1968,7 @@
     </row>
     <row r="58" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A58" s="5" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="B58" s="5" t="s">
         <v>288</v>
@@ -1954,31 +1976,31 @@
     </row>
     <row r="59" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A59" s="5" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="B59" s="5" t="s">
         <v>289</v>
       </c>
     </row>
-    <row r="60" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A60" s="5" t="s">
-        <v>33</v>
+        <v>16</v>
       </c>
       <c r="B60" s="5" t="s">
-        <v>290</v>
-      </c>
-    </row>
-    <row r="61" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="61" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A61" s="5" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B61" s="5" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
     </row>
     <row r="62" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A62" s="5" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B62" s="5" t="s">
         <v>295</v>
@@ -1986,7 +2008,7 @@
     </row>
     <row r="63" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A63" s="5" t="s">
-        <v>18</v>
+        <v>168</v>
       </c>
       <c r="B63" s="5" t="s">
         <v>296</v>
@@ -1994,63 +2016,63 @@
     </row>
     <row r="64" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A64" s="5" t="s">
-        <v>168</v>
+        <v>19</v>
       </c>
       <c r="B64" s="5" t="s">
-        <v>297</v>
+        <v>298</v>
       </c>
     </row>
     <row r="65" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A65" s="5" t="s">
-        <v>19</v>
+        <v>169</v>
       </c>
       <c r="B65" s="5" t="s">
-        <v>299</v>
+        <v>302</v>
       </c>
     </row>
     <row r="66" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A66" s="5" t="s">
-        <v>169</v>
+        <v>20</v>
       </c>
       <c r="B66" s="5" t="s">
-        <v>303</v>
+        <v>304</v>
       </c>
     </row>
     <row r="67" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A67" s="5" t="s">
-        <v>20</v>
+        <v>170</v>
       </c>
       <c r="B67" s="5" t="s">
-        <v>305</v>
+        <v>299</v>
       </c>
     </row>
     <row r="68" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A68" s="5" t="s">
-        <v>170</v>
+        <v>21</v>
       </c>
       <c r="B68" s="5" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
     </row>
     <row r="69" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A69" s="5" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B69" s="5" t="s">
-        <v>302</v>
+        <v>305</v>
       </c>
     </row>
     <row r="70" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A70" s="5" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B70" s="5" t="s">
-        <v>306</v>
+        <v>307</v>
       </c>
     </row>
     <row r="71" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A71" s="5" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B71" s="5" t="s">
         <v>308</v>
@@ -2058,7 +2080,7 @@
     </row>
     <row r="72" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A72" s="5" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B72" s="5" t="s">
         <v>309</v>
@@ -2066,7 +2088,7 @@
     </row>
     <row r="73" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A73" s="5" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B73" s="5" t="s">
         <v>310</v>
@@ -2074,31 +2096,31 @@
     </row>
     <row r="74" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A74" s="5" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B74" s="5" t="s">
         <v>311</v>
       </c>
     </row>
-    <row r="75" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A75" s="5" t="s">
-        <v>27</v>
+        <v>34</v>
       </c>
       <c r="B75" s="5" t="s">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="76" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A76" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="B76" s="5" t="s">
         <v>312</v>
-      </c>
-    </row>
-    <row r="76" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A76" s="5" t="s">
-        <v>34</v>
-      </c>
-      <c r="B76" s="5" t="s">
-        <v>280</v>
       </c>
     </row>
     <row r="77" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A77" s="5" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="B77" s="5" t="s">
         <v>313</v>
@@ -2106,7 +2128,7 @@
     </row>
     <row r="78" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A78" s="5" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="B78" s="5" t="s">
         <v>314</v>
@@ -2114,39 +2136,39 @@
     </row>
     <row r="79" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A79" s="5" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="B79" s="5" t="s">
-        <v>315</v>
+        <v>277</v>
       </c>
     </row>
     <row r="80" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A80" s="5" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="B80" s="5" t="s">
-        <v>278</v>
-      </c>
-    </row>
-    <row r="81" spans="1:2" x14ac:dyDescent="0.25">
+        <v>315</v>
+      </c>
+    </row>
+    <row r="81" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A81" s="5" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="B81" s="5" t="s">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="82" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A82" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="B82" s="5" t="s">
         <v>316</v>
-      </c>
-    </row>
-    <row r="82" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A82" s="5" t="s">
-        <v>40</v>
-      </c>
-      <c r="B82" s="5" t="s">
-        <v>294</v>
       </c>
     </row>
     <row r="83" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A83" s="5" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="B83" s="5" t="s">
         <v>317</v>
@@ -2154,23 +2176,23 @@
     </row>
     <row r="84" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A84" s="5" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="B84" s="5" t="s">
-        <v>318</v>
+        <v>297</v>
       </c>
     </row>
     <row r="85" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A85" s="5" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="B85" s="5" t="s">
-        <v>298</v>
+        <v>318</v>
       </c>
     </row>
     <row r="86" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A86" s="5" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="B86" s="5" t="s">
         <v>319</v>
@@ -2178,23 +2200,23 @@
     </row>
     <row r="87" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A87" s="5" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="B87" s="5" t="s">
-        <v>320</v>
+        <v>303</v>
       </c>
     </row>
     <row r="88" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A88" s="5" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="B88" s="5" t="s">
-        <v>304</v>
+        <v>322</v>
       </c>
     </row>
     <row r="89" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A89" s="5" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="B89" s="5" t="s">
         <v>323</v>
@@ -2202,23 +2224,23 @@
     </row>
     <row r="90" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A90" s="5" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="B90" s="5" t="s">
-        <v>324</v>
+        <v>300</v>
       </c>
     </row>
     <row r="91" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A91" s="5" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="B91" s="5" t="s">
-        <v>301</v>
+        <v>320</v>
       </c>
     </row>
     <row r="92" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A92" s="5" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="B92" s="5" t="s">
         <v>321</v>
@@ -2226,23 +2248,23 @@
     </row>
     <row r="93" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A93" s="5" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="B93" s="5" t="s">
-        <v>322</v>
+        <v>306</v>
       </c>
     </row>
     <row r="94" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A94" s="5" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="B94" s="5" t="s">
-        <v>307</v>
+        <v>324</v>
       </c>
     </row>
     <row r="95" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A95" s="5" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="B95" s="5" t="s">
         <v>325</v>
@@ -2250,7 +2272,7 @@
     </row>
     <row r="96" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A96" s="5" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="B96" s="5" t="s">
         <v>326</v>
@@ -2258,7 +2280,7 @@
     </row>
     <row r="97" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A97" s="5" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="B97" s="5" t="s">
         <v>327</v>
@@ -2266,39 +2288,39 @@
     </row>
     <row r="98" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A98" s="5" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="B98" s="5" t="s">
         <v>328</v>
       </c>
     </row>
-    <row r="99" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A99" s="5" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="B99" s="5" t="s">
-        <v>329</v>
-      </c>
-    </row>
-    <row r="100" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="100" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A100" s="5" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="B100" s="5" t="s">
-        <v>292</v>
+        <v>285</v>
       </c>
     </row>
     <row r="101" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A101" s="5" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="B101" s="5" t="s">
-        <v>286</v>
+        <v>329</v>
       </c>
     </row>
     <row r="102" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A102" s="5" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="B102" s="5" t="s">
         <v>330</v>
@@ -2306,7 +2328,7 @@
     </row>
     <row r="103" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A103" s="5" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="B103" s="5" t="s">
         <v>331</v>
@@ -2314,23 +2336,23 @@
     </row>
     <row r="104" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A104" s="5" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="B104" s="5" t="s">
         <v>332</v>
       </c>
     </row>
-    <row r="105" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A105" s="5" t="s">
-        <v>63</v>
-      </c>
-      <c r="B105" s="5" t="s">
-        <v>333</v>
-      </c>
-    </row>
-    <row r="106" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+        <v>64</v>
+      </c>
+      <c r="B105" s="2" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="106" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A106" s="5" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="B106" s="2" t="s">
         <v>224</v>
@@ -2338,7 +2360,7 @@
     </row>
     <row r="107" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A107" s="5" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="B107" s="2" t="s">
         <v>225</v>
@@ -2346,7 +2368,7 @@
     </row>
     <row r="108" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A108" s="5" t="s">
-        <v>66</v>
+        <v>163</v>
       </c>
       <c r="B108" s="2" t="s">
         <v>226</v>
@@ -2354,7 +2376,7 @@
     </row>
     <row r="109" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A109" s="5" t="s">
-        <v>163</v>
+        <v>67</v>
       </c>
       <c r="B109" s="2" t="s">
         <v>227</v>
@@ -2362,15 +2384,15 @@
     </row>
     <row r="110" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A110" s="5" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="B110" s="2" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
     </row>
     <row r="111" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A111" s="5" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="B111" s="2" t="s">
         <v>230</v>
@@ -2378,7 +2400,7 @@
     </row>
     <row r="112" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A112" s="5" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="B112" s="2" t="s">
         <v>231</v>
@@ -2386,31 +2408,31 @@
     </row>
     <row r="113" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A113" s="5" t="s">
-        <v>70</v>
+        <v>164</v>
       </c>
       <c r="B113" s="2" t="s">
-        <v>232</v>
+        <v>228</v>
       </c>
     </row>
     <row r="114" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A114" s="5" t="s">
-        <v>164</v>
+        <v>71</v>
       </c>
       <c r="B114" s="2" t="s">
-        <v>229</v>
+        <v>232</v>
       </c>
     </row>
     <row r="115" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A115" s="5" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="B115" s="2" t="s">
-        <v>233</v>
+        <v>220</v>
       </c>
     </row>
     <row r="116" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A116" s="5" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="B116" s="2" t="s">
         <v>221</v>
@@ -2418,7 +2440,7 @@
     </row>
     <row r="117" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A117" s="5" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="B117" s="2" t="s">
         <v>222</v>
@@ -2426,15 +2448,15 @@
     </row>
     <row r="118" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A118" s="5" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="B118" s="2" t="s">
-        <v>223</v>
+        <v>233</v>
       </c>
     </row>
     <row r="119" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A119" s="5" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="B119" s="2" t="s">
         <v>234</v>
@@ -2442,7 +2464,7 @@
     </row>
     <row r="120" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A120" s="5" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="B120" s="2" t="s">
         <v>235</v>
@@ -2450,7 +2472,7 @@
     </row>
     <row r="121" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A121" s="5" t="s">
-        <v>77</v>
+        <v>165</v>
       </c>
       <c r="B121" s="2" t="s">
         <v>236</v>
@@ -2458,7 +2480,7 @@
     </row>
     <row r="122" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A122" s="5" t="s">
-        <v>165</v>
+        <v>78</v>
       </c>
       <c r="B122" s="2" t="s">
         <v>237</v>
@@ -2466,7 +2488,7 @@
     </row>
     <row r="123" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A123" s="5" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="B123" s="2" t="s">
         <v>238</v>
@@ -2474,7 +2496,7 @@
     </row>
     <row r="124" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A124" s="5" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="B124" s="2" t="s">
         <v>239</v>
@@ -2482,7 +2504,7 @@
     </row>
     <row r="125" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A125" s="5" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="B125" s="2" t="s">
         <v>240</v>
@@ -2490,7 +2512,7 @@
     </row>
     <row r="126" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A126" s="5" t="s">
-        <v>81</v>
+        <v>166</v>
       </c>
       <c r="B126" s="2" t="s">
         <v>241</v>
@@ -2498,7 +2520,7 @@
     </row>
     <row r="127" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A127" s="5" t="s">
-        <v>166</v>
+        <v>82</v>
       </c>
       <c r="B127" s="2" t="s">
         <v>242</v>
@@ -2506,7 +2528,7 @@
     </row>
     <row r="128" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A128" s="5" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="B128" s="2" t="s">
         <v>243</v>
@@ -2514,7 +2536,7 @@
     </row>
     <row r="129" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A129" s="5" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="B129" s="2" t="s">
         <v>244</v>
@@ -2522,23 +2544,23 @@
     </row>
     <row r="130" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A130" s="5" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="B130" s="2" t="s">
         <v>245</v>
       </c>
     </row>
-    <row r="131" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A131" s="5" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="B131" s="2" t="s">
         <v>246</v>
       </c>
     </row>
-    <row r="132" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A132" s="5" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="B132" s="2" t="s">
         <v>247</v>
@@ -2546,15 +2568,15 @@
     </row>
     <row r="133" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A133" s="5" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="B133" s="2" t="s">
-        <v>248</v>
+        <v>255</v>
       </c>
     </row>
     <row r="134" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A134" s="5" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="B134" s="2" t="s">
         <v>256</v>
@@ -2562,15 +2584,15 @@
     </row>
     <row r="135" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A135" s="5" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="B135" s="2" t="s">
-        <v>257</v>
+        <v>248</v>
       </c>
     </row>
     <row r="136" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A136" s="5" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="B136" s="2" t="s">
         <v>249</v>
@@ -2578,7 +2600,7 @@
     </row>
     <row r="137" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A137" s="5" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="B137" s="2" t="s">
         <v>250</v>
@@ -2586,23 +2608,23 @@
     </row>
     <row r="138" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A138" s="5" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="B138" s="2" t="s">
-        <v>251</v>
+        <v>257</v>
       </c>
     </row>
     <row r="139" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A139" s="5" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="B139" s="2" t="s">
-        <v>258</v>
+        <v>252</v>
       </c>
     </row>
     <row r="140" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A140" s="5" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="B140" s="2" t="s">
         <v>253</v>
@@ -2610,15 +2632,15 @@
     </row>
     <row r="141" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A141" s="5" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="B141" s="2" t="s">
-        <v>254</v>
+        <v>258</v>
       </c>
     </row>
     <row r="142" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A142" s="5" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="B142" s="2" t="s">
         <v>259</v>
@@ -2626,7 +2648,7 @@
     </row>
     <row r="143" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A143" s="5" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="B143" s="2" t="s">
         <v>260</v>
@@ -2634,7 +2656,7 @@
     </row>
     <row r="144" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A144" s="5" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="B144" s="2" t="s">
         <v>261</v>
@@ -2642,7 +2664,7 @@
     </row>
     <row r="145" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A145" s="5" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="B145" s="2" t="s">
         <v>262</v>
@@ -2650,7 +2672,7 @@
     </row>
     <row r="146" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A146" s="5" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="B146" s="2" t="s">
         <v>263</v>
@@ -2658,7 +2680,7 @@
     </row>
     <row r="147" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A147" s="5" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="B147" s="2" t="s">
         <v>264</v>
@@ -2666,7 +2688,7 @@
     </row>
     <row r="148" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A148" s="5" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="B148" s="2" t="s">
         <v>265</v>
@@ -2674,7 +2696,7 @@
     </row>
     <row r="149" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A149" s="5" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="B149" s="2" t="s">
         <v>266</v>
@@ -2682,7 +2704,7 @@
     </row>
     <row r="150" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A150" s="5" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="B150" s="2" t="s">
         <v>267</v>
@@ -2690,7 +2712,7 @@
     </row>
     <row r="151" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A151" s="5" t="s">
-        <v>114</v>
+        <v>88</v>
       </c>
       <c r="B151" s="2" t="s">
         <v>268</v>
@@ -2698,39 +2720,39 @@
     </row>
     <row r="152" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A152" s="5" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="B152" s="2" t="s">
-        <v>269</v>
+        <v>254</v>
       </c>
     </row>
     <row r="153" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A153" s="5" t="s">
-        <v>91</v>
+        <v>94</v>
       </c>
       <c r="B153" s="2" t="s">
-        <v>255</v>
+        <v>269</v>
       </c>
     </row>
     <row r="154" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A154" s="5" t="s">
-        <v>94</v>
+        <v>97</v>
       </c>
       <c r="B154" s="2" t="s">
-        <v>270</v>
+        <v>251</v>
       </c>
     </row>
     <row r="155" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A155" s="5" t="s">
-        <v>97</v>
+        <v>100</v>
       </c>
       <c r="B155" s="2" t="s">
-        <v>252</v>
+        <v>270</v>
       </c>
     </row>
     <row r="156" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A156" s="5" t="s">
-        <v>100</v>
+        <v>103</v>
       </c>
       <c r="B156" s="2" t="s">
         <v>271</v>
@@ -2738,7 +2760,7 @@
     </row>
     <row r="157" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A157" s="5" t="s">
-        <v>103</v>
+        <v>106</v>
       </c>
       <c r="B157" s="2" t="s">
         <v>272</v>
@@ -2746,7 +2768,7 @@
     </row>
     <row r="158" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A158" s="5" t="s">
-        <v>106</v>
+        <v>109</v>
       </c>
       <c r="B158" s="2" t="s">
         <v>273</v>
@@ -2754,7 +2776,7 @@
     </row>
     <row r="159" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A159" s="5" t="s">
-        <v>109</v>
+        <v>112</v>
       </c>
       <c r="B159" s="2" t="s">
         <v>274</v>
@@ -2762,27 +2784,19 @@
     </row>
     <row r="160" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A160" s="5" t="s">
-        <v>112</v>
+        <v>115</v>
       </c>
       <c r="B160" s="2" t="s">
         <v>275</v>
       </c>
     </row>
     <row r="161" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A161" s="5" t="s">
-        <v>115</v>
-      </c>
-      <c r="B161" s="2" t="s">
-        <v>276</v>
-      </c>
+      <c r="A161" s="6"/>
+      <c r="B161" s="6"/>
     </row>
     <row r="162" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A162" s="8"/>
-      <c r="B162" s="8"/>
-    </row>
-    <row r="163" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A163" s="9"/>
-      <c r="B163" s="9"/>
+      <c r="A162" s="7"/>
+      <c r="B162" s="7"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -3044,10 +3058,10 @@
     </row>
     <row r="48" spans="1:1" s="4" customFormat="1" ht="21" x14ac:dyDescent="0.35"/>
     <row r="163" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A163" s="8"/>
+      <c r="A163" s="6"/>
     </row>
     <row r="164" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A164" s="9"/>
+      <c r="A164" s="7"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -3058,365 +3072,366 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3574BCC4-EAFC-4DDB-A182-74A53B3AAAA7}">
   <dimension ref="A1:B57"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="E20" sqref="E20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="33.140625" customWidth="1"/>
-    <col min="2" max="2" width="58.42578125" customWidth="1"/>
+    <col min="1" max="1" width="33.140625" style="14" customWidth="1"/>
+    <col min="2" max="2" width="58.42578125" style="14" customWidth="1"/>
+    <col min="3" max="16384" width="9.140625" style="14"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" ht="21" x14ac:dyDescent="0.25">
-      <c r="A1" s="3" t="s">
+      <c r="A1" s="12" t="s">
         <v>116</v>
       </c>
-      <c r="B1" s="7"/>
+      <c r="B1" s="13"/>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A2" s="5" t="s">
+      <c r="A2" s="15" t="s">
         <v>64</v>
       </c>
-      <c r="B2" s="6" t="s">
+      <c r="B2" s="16" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A3" s="5" t="s">
+      <c r="A3" s="15" t="s">
         <v>65</v>
       </c>
-      <c r="B3" s="6"/>
+      <c r="B3" s="16"/>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A4" s="5" t="s">
+      <c r="A4" s="15" t="s">
         <v>66</v>
       </c>
-      <c r="B4" s="6"/>
+      <c r="B4" s="16"/>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A5" s="5" t="s">
+      <c r="A5" s="15" t="s">
         <v>163</v>
       </c>
-      <c r="B5" s="6"/>
+      <c r="B5" s="16"/>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A6" s="5" t="s">
+      <c r="A6" s="15" t="s">
         <v>67</v>
       </c>
-      <c r="B6" s="6"/>
+      <c r="B6" s="16"/>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A7" s="5" t="s">
+      <c r="A7" s="15" t="s">
         <v>68</v>
       </c>
-      <c r="B7" s="6"/>
+      <c r="B7" s="16"/>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A8" s="5" t="s">
+      <c r="A8" s="15" t="s">
         <v>69</v>
       </c>
-      <c r="B8" s="6"/>
+      <c r="B8" s="16"/>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A9" s="5" t="s">
+      <c r="A9" s="15" t="s">
         <v>70</v>
       </c>
-      <c r="B9" s="6"/>
+      <c r="B9" s="16"/>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A10" s="5" t="s">
+      <c r="A10" s="15" t="s">
         <v>164</v>
       </c>
-      <c r="B10" s="6"/>
+      <c r="B10" s="16"/>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A11" s="5" t="s">
+      <c r="A11" s="15" t="s">
         <v>71</v>
       </c>
-      <c r="B11" s="6"/>
+      <c r="B11" s="16"/>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A12" s="5" t="s">
+      <c r="A12" s="15" t="s">
         <v>72</v>
       </c>
-      <c r="B12" s="6"/>
+      <c r="B12" s="16"/>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A13" s="5" t="s">
+      <c r="A13" s="15" t="s">
         <v>73</v>
       </c>
-      <c r="B13" s="6"/>
+      <c r="B13" s="16"/>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A14" s="5" t="s">
+      <c r="A14" s="15" t="s">
         <v>74</v>
       </c>
-      <c r="B14" s="6"/>
+      <c r="B14" s="16"/>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A15" s="5" t="s">
+      <c r="A15" s="15" t="s">
         <v>75</v>
       </c>
-      <c r="B15" s="6" t="s">
+      <c r="B15" s="16" t="s">
         <v>0</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A16" s="5" t="s">
+      <c r="A16" s="15" t="s">
         <v>76</v>
       </c>
-      <c r="B16" s="6"/>
+      <c r="B16" s="16"/>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A17" s="5" t="s">
+      <c r="A17" s="15" t="s">
         <v>77</v>
       </c>
-      <c r="B17" s="6"/>
+      <c r="B17" s="16"/>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A18" s="5" t="s">
+      <c r="A18" s="15" t="s">
         <v>165</v>
       </c>
-      <c r="B18" s="6"/>
+      <c r="B18" s="16"/>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A19" s="5" t="s">
+      <c r="A19" s="15" t="s">
         <v>78</v>
       </c>
-      <c r="B19" s="6"/>
+      <c r="B19" s="16"/>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A20" s="5" t="s">
+      <c r="A20" s="15" t="s">
         <v>79</v>
       </c>
-      <c r="B20" s="6"/>
+      <c r="B20" s="16"/>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A21" s="5" t="s">
+      <c r="A21" s="15" t="s">
         <v>80</v>
       </c>
-      <c r="B21" s="6"/>
+      <c r="B21" s="16"/>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A22" s="5" t="s">
+      <c r="A22" s="15" t="s">
         <v>81</v>
       </c>
-      <c r="B22" s="6"/>
+      <c r="B22" s="16"/>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A23" s="5" t="s">
+      <c r="A23" s="15" t="s">
         <v>166</v>
       </c>
-      <c r="B23" s="6"/>
+      <c r="B23" s="16"/>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A24" s="5" t="s">
+      <c r="A24" s="15" t="s">
         <v>82</v>
       </c>
-      <c r="B24" s="6"/>
+      <c r="B24" s="16"/>
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A25" s="5" t="s">
+      <c r="A25" s="15" t="s">
         <v>83</v>
       </c>
-      <c r="B25" s="6"/>
+      <c r="B25" s="16"/>
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A26" s="5" t="s">
+      <c r="A26" s="15" t="s">
         <v>84</v>
       </c>
-      <c r="B26" s="6"/>
+      <c r="B26" s="16"/>
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A27" s="5" t="s">
+      <c r="A27" s="15" t="s">
         <v>85</v>
       </c>
-      <c r="B27" s="6"/>
+      <c r="B27" s="16"/>
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A28" s="5" t="s">
+      <c r="A28" s="15" t="s">
         <v>86</v>
       </c>
-      <c r="B28" s="6" t="s">
+      <c r="B28" s="16" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A29" s="5" t="s">
+      <c r="A29" s="15" t="s">
         <v>87</v>
       </c>
-      <c r="B29" s="6"/>
+      <c r="B29" s="16"/>
     </row>
     <row r="30" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A30" s="5" t="s">
+      <c r="A30" s="15" t="s">
         <v>89</v>
       </c>
-      <c r="B30" s="6"/>
+      <c r="B30" s="16"/>
     </row>
     <row r="31" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A31" s="5" t="s">
+      <c r="A31" s="15" t="s">
         <v>90</v>
       </c>
-      <c r="B31" s="6"/>
+      <c r="B31" s="16"/>
     </row>
     <row r="32" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A32" s="5" t="s">
+      <c r="A32" s="15" t="s">
         <v>92</v>
       </c>
-      <c r="B32" s="6"/>
+      <c r="B32" s="16"/>
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A33" s="5" t="s">
+      <c r="A33" s="15" t="s">
         <v>93</v>
       </c>
-      <c r="B33" s="6"/>
+      <c r="B33" s="16"/>
     </row>
     <row r="34" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A34" s="5" t="s">
+      <c r="A34" s="15" t="s">
         <v>95</v>
       </c>
-      <c r="B34" s="6"/>
+      <c r="B34" s="16"/>
     </row>
     <row r="35" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A35" s="5" t="s">
+      <c r="A35" s="15" t="s">
         <v>96</v>
       </c>
-      <c r="B35" s="6"/>
+      <c r="B35" s="16"/>
     </row>
     <row r="36" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A36" s="5" t="s">
+      <c r="A36" s="15" t="s">
         <v>98</v>
       </c>
-      <c r="B36" s="6"/>
+      <c r="B36" s="16"/>
     </row>
     <row r="37" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A37" s="5" t="s">
+      <c r="A37" s="15" t="s">
         <v>99</v>
       </c>
-      <c r="B37" s="6"/>
+      <c r="B37" s="16"/>
     </row>
     <row r="38" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A38" s="5" t="s">
+      <c r="A38" s="15" t="s">
         <v>101</v>
       </c>
-      <c r="B38" s="6"/>
+      <c r="B38" s="16"/>
     </row>
     <row r="39" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A39" s="5" t="s">
+      <c r="A39" s="15" t="s">
         <v>102</v>
       </c>
-      <c r="B39" s="6"/>
+      <c r="B39" s="16"/>
     </row>
     <row r="40" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A40" s="5" t="s">
+      <c r="A40" s="15" t="s">
         <v>104</v>
       </c>
-      <c r="B40" s="6"/>
+      <c r="B40" s="16"/>
     </row>
     <row r="41" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A41" s="5" t="s">
+      <c r="A41" s="15" t="s">
         <v>105</v>
       </c>
-      <c r="B41" s="6"/>
+      <c r="B41" s="16"/>
     </row>
     <row r="42" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A42" s="5" t="s">
+      <c r="A42" s="15" t="s">
         <v>107</v>
       </c>
-      <c r="B42" s="6"/>
+      <c r="B42" s="16"/>
     </row>
     <row r="43" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A43" s="5" t="s">
+      <c r="A43" s="15" t="s">
         <v>108</v>
       </c>
-      <c r="B43" s="6" t="s">
+      <c r="B43" s="16" t="s">
         <v>0</v>
       </c>
     </row>
     <row r="44" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A44" s="5" t="s">
+      <c r="A44" s="15" t="s">
         <v>110</v>
       </c>
-      <c r="B44" s="6"/>
+      <c r="B44" s="16"/>
     </row>
     <row r="45" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A45" s="5" t="s">
+      <c r="A45" s="15" t="s">
         <v>111</v>
       </c>
-      <c r="B45" s="6"/>
+      <c r="B45" s="16"/>
     </row>
     <row r="46" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A46" s="5" t="s">
+      <c r="A46" s="15" t="s">
         <v>113</v>
       </c>
-      <c r="B46" s="6"/>
+      <c r="B46" s="16"/>
     </row>
     <row r="47" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A47" s="5" t="s">
+      <c r="A47" s="15" t="s">
         <v>114</v>
       </c>
-      <c r="B47" s="6"/>
+      <c r="B47" s="16"/>
     </row>
     <row r="48" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A48" s="5" t="s">
+      <c r="A48" s="15" t="s">
         <v>88</v>
       </c>
-      <c r="B48" s="6"/>
+      <c r="B48" s="16"/>
     </row>
     <row r="49" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A49" s="5" t="s">
+      <c r="A49" s="15" t="s">
         <v>91</v>
       </c>
-      <c r="B49" s="6"/>
+      <c r="B49" s="16"/>
     </row>
     <row r="50" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A50" s="5" t="s">
+      <c r="A50" s="15" t="s">
         <v>94</v>
       </c>
-      <c r="B50" s="6"/>
+      <c r="B50" s="16"/>
     </row>
     <row r="51" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A51" s="5" t="s">
+      <c r="A51" s="15" t="s">
         <v>97</v>
       </c>
-      <c r="B51" s="6"/>
+      <c r="B51" s="16"/>
     </row>
     <row r="52" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A52" s="5" t="s">
+      <c r="A52" s="15" t="s">
         <v>100</v>
       </c>
-      <c r="B52" s="6"/>
+      <c r="B52" s="16"/>
     </row>
     <row r="53" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A53" s="5" t="s">
+      <c r="A53" s="15" t="s">
         <v>103</v>
       </c>
-      <c r="B53" s="6"/>
+      <c r="B53" s="16"/>
     </row>
     <row r="54" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A54" s="5" t="s">
+      <c r="A54" s="15" t="s">
         <v>106</v>
       </c>
-      <c r="B54" s="6"/>
+      <c r="B54" s="16"/>
     </row>
     <row r="55" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A55" s="5" t="s">
+      <c r="A55" s="15" t="s">
         <v>109</v>
       </c>
-      <c r="B55" s="6"/>
+      <c r="B55" s="16"/>
     </row>
     <row r="56" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A56" s="5" t="s">
+      <c r="A56" s="15" t="s">
         <v>112</v>
       </c>
-      <c r="B56" s="6"/>
+      <c r="B56" s="16"/>
     </row>
     <row r="57" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A57" s="5" t="s">
+      <c r="A57" s="15" t="s">
         <v>115</v>
       </c>
-      <c r="B57" s="6"/>
+      <c r="B57" s="16"/>
     </row>
   </sheetData>
   <mergeCells count="4">
@@ -3453,7 +3468,7 @@
       <c r="A2" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="B2" s="6" t="s">
+      <c r="B2" s="11" t="s">
         <v>5</v>
       </c>
     </row>
@@ -3461,37 +3476,37 @@
       <c r="A3" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="B3" s="6"/>
+      <c r="B3" s="11"/>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="B4" s="6"/>
+      <c r="B4" s="11"/>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="B5" s="6"/>
+      <c r="B5" s="11"/>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="B6" s="6"/>
+      <c r="B6" s="11"/>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="B7" s="6"/>
+      <c r="B7" s="11"/>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A8" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="B8" s="6" t="s">
+      <c r="B8" s="11" t="s">
         <v>2</v>
       </c>
     </row>
@@ -3499,37 +3514,37 @@
       <c r="A9" s="5" t="s">
         <v>29</v>
       </c>
-      <c r="B9" s="6"/>
+      <c r="B9" s="11"/>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A10" s="5" t="s">
         <v>30</v>
       </c>
-      <c r="B10" s="6"/>
+      <c r="B10" s="11"/>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A11" s="5" t="s">
         <v>31</v>
       </c>
-      <c r="B11" s="6"/>
+      <c r="B11" s="11"/>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A12" s="5" t="s">
         <v>32</v>
       </c>
-      <c r="B12" s="6"/>
+      <c r="B12" s="11"/>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A13" s="5" t="s">
         <v>33</v>
       </c>
-      <c r="B13" s="6"/>
+      <c r="B13" s="11"/>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A14" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="B14" s="6" t="s">
+      <c r="B14" s="11" t="s">
         <v>1</v>
       </c>
     </row>
@@ -3537,91 +3552,91 @@
       <c r="A15" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="B15" s="6"/>
+      <c r="B15" s="11"/>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A16" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="B16" s="6"/>
+      <c r="B16" s="11"/>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A17" s="5" t="s">
         <v>168</v>
       </c>
-      <c r="B17" s="6"/>
+      <c r="B17" s="11"/>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A18" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="B18" s="6"/>
+      <c r="B18" s="11"/>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A19" s="5" t="s">
         <v>169</v>
       </c>
-      <c r="B19" s="6"/>
+      <c r="B19" s="11"/>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A20" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="B20" s="6"/>
+      <c r="B20" s="11"/>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A21" s="5" t="s">
         <v>170</v>
       </c>
-      <c r="B21" s="6"/>
+      <c r="B21" s="11"/>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A22" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="B22" s="6"/>
+      <c r="B22" s="11"/>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A23" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="B23" s="6"/>
+      <c r="B23" s="11"/>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A24" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="B24" s="6"/>
+      <c r="B24" s="11"/>
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A25" s="5" t="s">
         <v>24</v>
       </c>
-      <c r="B25" s="6"/>
+      <c r="B25" s="11"/>
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A26" s="5" t="s">
         <v>25</v>
       </c>
-      <c r="B26" s="6"/>
+      <c r="B26" s="11"/>
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A27" s="5" t="s">
         <v>26</v>
       </c>
-      <c r="B27" s="6"/>
+      <c r="B27" s="11"/>
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A28" s="5" t="s">
         <v>27</v>
       </c>
-      <c r="B28" s="6"/>
+      <c r="B28" s="11"/>
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A29" s="5" t="s">
         <v>34</v>
       </c>
-      <c r="B29" s="6" t="s">
+      <c r="B29" s="11" t="s">
         <v>6</v>
       </c>
     </row>
@@ -3629,37 +3644,37 @@
       <c r="A30" s="5" t="s">
         <v>35</v>
       </c>
-      <c r="B30" s="6"/>
+      <c r="B30" s="11"/>
     </row>
     <row r="31" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A31" s="5" t="s">
         <v>36</v>
       </c>
-      <c r="B31" s="6"/>
+      <c r="B31" s="11"/>
     </row>
     <row r="32" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A32" s="5" t="s">
         <v>37</v>
       </c>
-      <c r="B32" s="6"/>
+      <c r="B32" s="11"/>
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A33" s="5" t="s">
         <v>38</v>
       </c>
-      <c r="B33" s="6"/>
+      <c r="B33" s="11"/>
     </row>
     <row r="34" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A34" s="5" t="s">
         <v>39</v>
       </c>
-      <c r="B34" s="6"/>
+      <c r="B34" s="11"/>
     </row>
     <row r="35" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A35" s="5" t="s">
         <v>40</v>
       </c>
-      <c r="B35" s="6" t="s">
+      <c r="B35" s="11" t="s">
         <v>3</v>
       </c>
     </row>
@@ -3667,109 +3682,109 @@
       <c r="A36" s="5" t="s">
         <v>41</v>
       </c>
-      <c r="B36" s="6"/>
+      <c r="B36" s="11"/>
     </row>
     <row r="37" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A37" s="5" t="s">
         <v>42</v>
       </c>
-      <c r="B37" s="6"/>
+      <c r="B37" s="11"/>
     </row>
     <row r="38" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A38" s="5" t="s">
         <v>43</v>
       </c>
-      <c r="B38" s="6"/>
+      <c r="B38" s="11"/>
     </row>
     <row r="39" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A39" s="5" t="s">
         <v>44</v>
       </c>
-      <c r="B39" s="6"/>
+      <c r="B39" s="11"/>
     </row>
     <row r="40" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A40" s="5" t="s">
         <v>45</v>
       </c>
-      <c r="B40" s="6"/>
+      <c r="B40" s="11"/>
     </row>
     <row r="41" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A41" s="5" t="s">
         <v>46</v>
       </c>
-      <c r="B41" s="6"/>
+      <c r="B41" s="11"/>
     </row>
     <row r="42" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A42" s="5" t="s">
         <v>47</v>
       </c>
-      <c r="B42" s="6"/>
+      <c r="B42" s="11"/>
     </row>
     <row r="43" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A43" s="5" t="s">
         <v>48</v>
       </c>
-      <c r="B43" s="6"/>
+      <c r="B43" s="11"/>
     </row>
     <row r="44" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A44" s="5" t="s">
         <v>49</v>
       </c>
-      <c r="B44" s="6"/>
+      <c r="B44" s="11"/>
     </row>
     <row r="45" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A45" s="5" t="s">
         <v>50</v>
       </c>
-      <c r="B45" s="6"/>
+      <c r="B45" s="11"/>
     </row>
     <row r="46" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A46" s="5" t="s">
         <v>51</v>
       </c>
-      <c r="B46" s="6"/>
+      <c r="B46" s="11"/>
     </row>
     <row r="47" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A47" s="5" t="s">
         <v>52</v>
       </c>
-      <c r="B47" s="6"/>
+      <c r="B47" s="11"/>
     </row>
     <row r="48" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A48" s="5" t="s">
         <v>53</v>
       </c>
-      <c r="B48" s="6"/>
+      <c r="B48" s="11"/>
     </row>
     <row r="49" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A49" s="5" t="s">
         <v>54</v>
       </c>
-      <c r="B49" s="6"/>
+      <c r="B49" s="11"/>
     </row>
     <row r="50" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A50" s="5" t="s">
         <v>55</v>
       </c>
-      <c r="B50" s="6"/>
+      <c r="B50" s="11"/>
     </row>
     <row r="51" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A51" s="5" t="s">
         <v>56</v>
       </c>
-      <c r="B51" s="6"/>
+      <c r="B51" s="11"/>
     </row>
     <row r="52" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A52" s="5" t="s">
         <v>57</v>
       </c>
-      <c r="B52" s="6"/>
+      <c r="B52" s="11"/>
     </row>
     <row r="53" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A53" s="5" t="s">
         <v>58</v>
       </c>
-      <c r="B53" s="6" t="s">
+      <c r="B53" s="11" t="s">
         <v>4</v>
       </c>
     </row>
@@ -3777,40 +3792,40 @@
       <c r="A54" s="5" t="s">
         <v>59</v>
       </c>
-      <c r="B54" s="6"/>
+      <c r="B54" s="11"/>
     </row>
     <row r="55" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A55" s="5" t="s">
         <v>60</v>
       </c>
-      <c r="B55" s="6"/>
+      <c r="B55" s="11"/>
     </row>
     <row r="56" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A56" s="5" t="s">
         <v>61</v>
       </c>
-      <c r="B56" s="6"/>
+      <c r="B56" s="11"/>
     </row>
     <row r="57" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A57" s="5" t="s">
         <v>62</v>
       </c>
-      <c r="B57" s="6"/>
+      <c r="B57" s="11"/>
     </row>
     <row r="58" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A58" s="5" t="s">
         <v>63</v>
       </c>
-      <c r="B58" s="6"/>
+      <c r="B58" s="11"/>
     </row>
   </sheetData>
   <mergeCells count="6">
+    <mergeCell ref="B53:B58"/>
     <mergeCell ref="B2:B7"/>
     <mergeCell ref="B8:B13"/>
     <mergeCell ref="B14:B28"/>
     <mergeCell ref="B29:B34"/>
     <mergeCell ref="B35:B52"/>
-    <mergeCell ref="B53:B58"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
